--- a/_site/posts/2021-01-25-dataviz-makeover-01/data/4_insights.xlsx
+++ b/_site/posts/2021-01-25-dataviz-makeover-01/data/4_insights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\awljiang\blog\_posts\2021-01-25-dataviz-makeover-01\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287A100D-2452-4D08-8763-C29C758885D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39044B73-6668-4DFC-973A-C6C2D771AC3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2904" yWindow="876" windowWidth="19812" windowHeight="11316" xr2:uid="{E5126F01-3BB4-4DF9-8DA2-38F93798EF39}"/>
+    <workbookView xWindow="900" yWindow="612" windowWidth="19812" windowHeight="11316" xr2:uid="{E5126F01-3BB4-4DF9-8DA2-38F93798EF39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,13 +44,13 @@
     <t>Share of older residents (aged 55 &amp; over) in the labour force rose by 9pp compared to a decade ago to 25%, while share of residents aged 25 - 54 declined by 8pp.</t>
   </si>
   <si>
-    <t>Despite a decline in labour force share, labour force participation rate of aged 25 - 54 rose by 4pp compared to a decade ago.</t>
-  </si>
-  <si>
     <t>Share of residents in the labour force by age and participation rate by age were relatively stable over the last 5 years (2014 - 2019).</t>
   </si>
   <si>
-    <t>Median Age of residents in the labour force remained at 43 years old from 2014 to 2018, and increased to 44 years old in 2019.</t>
+    <t>Despite a decline in labour force share, labour force participation rate of aged 25 - 54 rose by 4pp compared to a decade ago to 88%.</t>
+  </si>
+  <si>
+    <t>Median Age of residents in the labour force increased from 41 years old in 2009 to 44 years old in 2019. Nonetheless, the median age remained at 43 years old from 2014 to 2018 before increasing to 44 years old in 2019.</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,7 +434,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -442,7 +442,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
